--- a/cycle/daily_limit_up_market/20250106.xlsx
+++ b/cycle/daily_limit_up_market/20250106.xlsx
@@ -533,34 +533,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>600789</t>
+          <t>000573</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>鲁抗医药</t>
+          <t>粤宏远Ａ</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.02838230133057</v>
+        <v>9.91253662109375</v>
       </c>
       <c r="F2" t="n">
-        <v>11.63</v>
+        <v>3.77</v>
       </c>
       <c r="G2" t="n">
-        <v>710164560</v>
+        <v>34276214</v>
       </c>
       <c r="H2" t="n">
-        <v>10451527820.16</v>
+        <v>2386277367.63</v>
       </c>
       <c r="I2" t="n">
-        <v>10451527820.16</v>
+        <v>2406317892.16</v>
       </c>
       <c r="J2" t="n">
-        <v>6.794839859008789</v>
+        <v>1.436388492584229</v>
       </c>
       <c r="K2" t="n">
-        <v>400936562</v>
+        <v>197449097</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>房地产开</t>
         </is>
       </c>
     </row>
@@ -598,34 +598,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>000573</t>
+          <t>600789</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>鲁抗医药</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.91253662109375</v>
+        <v>10.02838230133057</v>
       </c>
       <c r="F3" t="n">
-        <v>3.77</v>
+        <v>11.63</v>
       </c>
       <c r="G3" t="n">
-        <v>34276214</v>
+        <v>710164560</v>
       </c>
       <c r="H3" t="n">
-        <v>2386277367.63</v>
+        <v>10451527820.16</v>
       </c>
       <c r="I3" t="n">
-        <v>2406317892.16</v>
+        <v>10451527820.16</v>
       </c>
       <c r="J3" t="n">
-        <v>1.436388492584229</v>
+        <v>6.794839859008789</v>
       </c>
       <c r="K3" t="n">
-        <v>197449097</v>
+        <v>400936562</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>房地产开</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -663,34 +663,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>603617</t>
+          <t>603215</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>君禾股份</t>
+          <t>比依股份</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10.03382205963135</v>
+        <v>10.00485610961914</v>
       </c>
       <c r="F4" t="n">
-        <v>9.76</v>
+        <v>22.65</v>
       </c>
       <c r="G4" t="n">
-        <v>584853632</v>
+        <v>1036403680</v>
       </c>
       <c r="H4" t="n">
-        <v>3709593849.12</v>
+        <v>1608886804.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3813049917.44</v>
+        <v>4269715237.35</v>
       </c>
       <c r="J4" t="n">
-        <v>15.77432155609131</v>
+        <v>64.80007934570312</v>
       </c>
       <c r="K4" t="n">
-        <v>142898853</v>
+        <v>46708830</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -699,23 +699,23 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>095541</t>
+          <t>140602</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>6/4</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>家电行业</t>
         </is>
       </c>
     </row>
@@ -728,34 +728,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>603215</t>
+          <t>603617</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>比依股份</t>
+          <t>君禾股份</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10.00485610961914</v>
+        <v>10.03382205963135</v>
       </c>
       <c r="F5" t="n">
-        <v>22.65</v>
+        <v>9.76</v>
       </c>
       <c r="G5" t="n">
-        <v>1036403680</v>
+        <v>584853632</v>
       </c>
       <c r="H5" t="n">
-        <v>1608886804.5</v>
+        <v>3709593849.12</v>
       </c>
       <c r="I5" t="n">
-        <v>4269715237.35</v>
+        <v>3813049917.44</v>
       </c>
       <c r="J5" t="n">
-        <v>64.80007934570312</v>
+        <v>15.77432155609131</v>
       </c>
       <c r="K5" t="n">
-        <v>46708830</v>
+        <v>142898853</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -764,23 +764,23 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>140602</t>
+          <t>095541</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>6/4</t>
+          <t>4/4</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>家电行业</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -858,34 +858,34 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>600983</t>
+          <t>600173</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>惠而浦</t>
+          <t>卧龙地产</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>9.953161239624023</v>
+        <v>10.07957553863525</v>
       </c>
       <c r="F7" t="n">
-        <v>9.390000000000001</v>
+        <v>4.15</v>
       </c>
       <c r="G7" t="n">
-        <v>28083612</v>
+        <v>15884997</v>
       </c>
       <c r="H7" t="n">
-        <v>7196862210</v>
+        <v>2906727412.6</v>
       </c>
       <c r="I7" t="n">
-        <v>7196862285.120001</v>
+        <v>2907100896</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3902202248573303</v>
+        <v>0.5464907288551331</v>
       </c>
       <c r="K7" t="n">
-        <v>111770109</v>
+        <v>48269438</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>家电行业</t>
+          <t>房地产开</t>
         </is>
       </c>
     </row>
@@ -923,34 +923,34 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>600173</t>
+          <t>600983</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>卧龙地产</t>
+          <t>惠而浦</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10.07957553863525</v>
+        <v>9.953161239624023</v>
       </c>
       <c r="F8" t="n">
-        <v>4.15</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>15884997</v>
+        <v>28083612</v>
       </c>
       <c r="H8" t="n">
-        <v>2906727412.6</v>
+        <v>7196862210</v>
       </c>
       <c r="I8" t="n">
-        <v>2907100896</v>
+        <v>7196862285.120001</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5464907288551331</v>
+        <v>0.3902202248573303</v>
       </c>
       <c r="K8" t="n">
-        <v>48269438</v>
+        <v>111770109</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>房地产开</t>
+          <t>家电行业</t>
         </is>
       </c>
     </row>
@@ -4849,57 +4849,57 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>600693</t>
+          <t>002449</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>东百集团</t>
+          <t>国星光电</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-10.03541946411133</v>
+        <v>-9.98603343963623</v>
       </c>
       <c r="F7" t="n">
-        <v>7.62</v>
+        <v>12.89</v>
       </c>
       <c r="G7" t="n">
-        <v>9.32</v>
+        <v>15.75</v>
       </c>
       <c r="H7" t="n">
-        <v>923295168</v>
+        <v>2414096192</v>
       </c>
       <c r="I7" t="n">
-        <v>6621420198.84</v>
+        <v>7946606229.21</v>
       </c>
       <c r="J7" t="n">
-        <v>6628228348.8</v>
+        <v>7972170695.52</v>
       </c>
       <c r="K7" t="n">
-        <v>13.37450408935547</v>
+        <v>28.36662483215332</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>16.29279899597168</v>
+        <v>10.54469299316406</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>145437</t>
+          <t>095027</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>19/10</t>
+          <t>12/6</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>商业百货</t>
+          <t>光学光电</t>
         </is>
       </c>
     </row>
@@ -4912,57 +4912,57 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>000533</t>
+          <t>002426</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>顺钠股份</t>
+          <t>胜利精密</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-7.765667915344238</v>
+        <v>7.876711845397949</v>
       </c>
       <c r="F8" t="n">
-        <v>6.77</v>
+        <v>3.15</v>
       </c>
       <c r="G8" t="n">
-        <v>8.07</v>
+        <v>3.21</v>
       </c>
       <c r="H8" t="n">
-        <v>2262480896</v>
+        <v>2358402528</v>
       </c>
       <c r="I8" t="n">
-        <v>4636789248</v>
+        <v>10718189656.65</v>
       </c>
       <c r="J8" t="n">
-        <v>4676824320</v>
+        <v>10718271648</v>
       </c>
       <c r="K8" t="n">
-        <v>42.95573043823242</v>
+        <v>22.48434638977051</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>19.75476837158203</v>
+        <v>9.931507110595703</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>145654</t>
+          <t>144027</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>7/6</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -4975,57 +4975,57 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>600530</t>
+          <t>000756</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>交大昂立</t>
+          <t>新华制药</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-9.931507110595703</v>
+        <v>10.02985095977783</v>
       </c>
       <c r="F9" t="n">
-        <v>5.26</v>
+        <v>18.43</v>
       </c>
       <c r="G9" t="n">
-        <v>6.42</v>
+        <v>18.43</v>
       </c>
       <c r="H9" t="n">
-        <v>389335728</v>
+        <v>1746293584</v>
       </c>
       <c r="I9" t="n">
-        <v>4076079200</v>
+        <v>8270911473.23</v>
       </c>
       <c r="J9" t="n">
-        <v>4076079200</v>
+        <v>12576772657.76</v>
       </c>
       <c r="K9" t="n">
-        <v>9.443222045898438</v>
+        <v>21.56064605712891</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>8.219178199768066</v>
+        <v>5.970149040222168</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>142040</t>
+          <t>131521</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>5/4</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>食品饮料</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -5038,57 +5038,57 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>002184</t>
+          <t>002361</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>海得控制</t>
+          <t>神剑股份</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>9.971712112426758</v>
+        <v>-4.429301738739014</v>
       </c>
       <c r="F10" t="n">
-        <v>15.55</v>
+        <v>5.61</v>
       </c>
       <c r="G10" t="n">
-        <v>15.55</v>
+        <v>6.46</v>
       </c>
       <c r="H10" t="n">
-        <v>1506336720</v>
+        <v>1598955104</v>
       </c>
       <c r="I10" t="n">
-        <v>3733205187.2</v>
+        <v>4498787940.240001</v>
       </c>
       <c r="J10" t="n">
-        <v>5472175122.400001</v>
+        <v>5335306215.360001</v>
       </c>
       <c r="K10" t="n">
-        <v>43.27121353149414</v>
+        <v>35.0535774230957</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>18.88260269165039</v>
+        <v>14.65076637268066</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>142354</t>
+          <t>101251</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>6/4</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>专用设备</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -5101,57 +5101,57 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>603617</t>
+          <t>003015</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>君禾股份</t>
+          <t>日久光电</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10.03382205963135</v>
+        <v>4.057591915130615</v>
       </c>
       <c r="F11" t="n">
-        <v>9.76</v>
+        <v>15.9</v>
       </c>
       <c r="G11" t="n">
-        <v>9.76</v>
+        <v>16.81</v>
       </c>
       <c r="H11" t="n">
-        <v>584853632</v>
+        <v>1339176528</v>
       </c>
       <c r="I11" t="n">
-        <v>3709593849.12</v>
+        <v>3947414835.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3813049917.44</v>
+        <v>4468960084.8</v>
       </c>
       <c r="K11" t="n">
-        <v>15.77432155609131</v>
+        <v>34.95267486572266</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>3.043968439102173</v>
+        <v>12.63088989257812</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>102030</t>
+          <t>144036</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>光学光电</t>
         </is>
       </c>
     </row>
@@ -5164,57 +5164,57 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>002397</t>
+          <t>600664</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>梦洁股份</t>
+          <t>哈药股份</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.915493011474609</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>3.76</v>
+        <v>4.73</v>
       </c>
       <c r="G12" t="n">
-        <v>3.91</v>
+        <v>4.73</v>
       </c>
       <c r="H12" t="n">
-        <v>717374496</v>
+        <v>1227684400</v>
       </c>
       <c r="I12" t="n">
-        <v>2210324268.24</v>
+        <v>11912551713.48</v>
       </c>
       <c r="J12" t="n">
-        <v>2811658214.4</v>
+        <v>11912551694.56</v>
       </c>
       <c r="K12" t="n">
-        <v>33.64427185058594</v>
+        <v>10.39651775360107</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>5.581395149230957</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>092500</t>
+          <t>145439</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>纺织服装</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -5227,57 +5227,57 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>000981</t>
+          <t>002733</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>山子高科</t>
+          <t>雄韬股份</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-7.024793148040771</v>
+        <v>10.03215503692627</v>
       </c>
       <c r="F13" t="n">
-        <v>2.25</v>
+        <v>17.11</v>
       </c>
       <c r="G13" t="n">
-        <v>2.66</v>
+        <v>17.11</v>
       </c>
       <c r="H13" t="n">
-        <v>2597644912</v>
+        <v>1152002080</v>
       </c>
       <c r="I13" t="n">
-        <v>14681599767</v>
+        <v>6311241806.49</v>
       </c>
       <c r="J13" t="n">
-        <v>22494309696</v>
+        <v>6573917144.32</v>
       </c>
       <c r="K13" t="n">
-        <v>17.22141456604004</v>
+        <v>20.16857147216797</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>12.80991744995117</v>
+        <v>16.78456687927246</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>092500</t>
+          <t>140654</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>3/2</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>汽车零部</t>
+          <t>电池</t>
         </is>
       </c>
     </row>
@@ -5290,57 +5290,57 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>002117</t>
+          <t>301568</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>东港股份</t>
+          <t>思泰克</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-9.971712112426758</v>
+        <v>3.86904764175415</v>
       </c>
       <c r="F14" t="n">
-        <v>12.73</v>
+        <v>41.88</v>
       </c>
       <c r="G14" t="n">
-        <v>15.55</v>
+        <v>48.38</v>
       </c>
       <c r="H14" t="n">
-        <v>1273055184</v>
+        <v>964982304</v>
       </c>
       <c r="I14" t="n">
-        <v>6664851076.400001</v>
+        <v>1995331515.72</v>
       </c>
       <c r="J14" t="n">
-        <v>6666967820.8</v>
+        <v>4324461792</v>
       </c>
       <c r="K14" t="n">
-        <v>18.75010871887207</v>
+        <v>49.36143112182617</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>7.496464252471924</v>
+        <v>11.75595188140869</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>131015</t>
+          <t>105033</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>6/4</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>造纸印刷</t>
+          <t>专用设备</t>
         </is>
       </c>
     </row>
@@ -5353,57 +5353,57 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>000882</t>
+          <t>000852</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>华联股份</t>
+          <t>石化机械</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-9.920635223388672</v>
+        <v>1.604277968406677</v>
       </c>
       <c r="F15" t="n">
-        <v>2.27</v>
+        <v>7.6</v>
       </c>
       <c r="G15" t="n">
-        <v>2.77</v>
+        <v>8.23</v>
       </c>
       <c r="H15" t="n">
-        <v>1076132368</v>
+        <v>899763136</v>
       </c>
       <c r="I15" t="n">
-        <v>6209617383.82</v>
+        <v>7151610480.4</v>
       </c>
       <c r="J15" t="n">
-        <v>6213788931.04</v>
+        <v>7266676889.599999</v>
       </c>
       <c r="K15" t="n">
-        <v>16.66067886352539</v>
+        <v>12.72422790527344</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>11.50793647766113</v>
+        <v>9.358288764953613</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>144645</t>
+          <t>101754</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>3/2</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>商业百货</t>
+          <t>专用设备</t>
         </is>
       </c>
     </row>
@@ -5416,57 +5416,57 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>600824</t>
+          <t>002076</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>益民集团</t>
+          <t>星光股份</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3.142328977584839</v>
+        <v>7.011070251464844</v>
       </c>
       <c r="F16" t="n">
-        <v>5.58</v>
+        <v>2.9</v>
       </c>
       <c r="G16" t="n">
-        <v>5.95</v>
+        <v>2.98</v>
       </c>
       <c r="H16" t="n">
-        <v>1766538896</v>
+        <v>865173472</v>
       </c>
       <c r="I16" t="n">
-        <v>5881471067.34</v>
+        <v>2996428567</v>
       </c>
       <c r="J16" t="n">
-        <v>5881471061.76</v>
+        <v>3216461038.4</v>
       </c>
       <c r="K16" t="n">
-        <v>29.28415107727051</v>
+        <v>29.24821090698242</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>13.4935302734375</v>
+        <v>8.118081092834473</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>133905</t>
+          <t>104857</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>3/2</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>商业百货</t>
+          <t>家电行业</t>
         </is>
       </c>
     </row>
@@ -5479,57 +5479,57 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>300615</t>
+          <t>002213</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>欣天科技</t>
+          <t>大为股份</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.915408134460449</v>
+        <v>1.40350878238678</v>
       </c>
       <c r="F17" t="n">
-        <v>17.86</v>
+        <v>14.45</v>
       </c>
       <c r="G17" t="n">
-        <v>19.86</v>
+        <v>15.68</v>
       </c>
       <c r="H17" t="n">
-        <v>901003248</v>
+        <v>847338752</v>
       </c>
       <c r="I17" t="n">
-        <v>2361668824.42</v>
+        <v>2976625784.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3450869908</v>
+        <v>3426889750</v>
       </c>
       <c r="K17" t="n">
-        <v>37.61865997314453</v>
+        <v>28.26461982727051</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>16.79758262634277</v>
+        <v>11.22807025909424</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>135854</t>
+          <t>095245</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>3/2</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>通信设备</t>
+          <t>半导体</t>
         </is>
       </c>
     </row>
@@ -5542,57 +5542,57 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>605033</t>
+          <t>600618</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>美邦股份</t>
+          <t>氯碱化工</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>10.03436470031738</v>
+        <v>10.00918292999268</v>
       </c>
       <c r="F18" t="n">
-        <v>16.01</v>
+        <v>11.98</v>
       </c>
       <c r="G18" t="n">
-        <v>16.01</v>
+        <v>11.98</v>
       </c>
       <c r="H18" t="n">
-        <v>270682080</v>
+        <v>846526080</v>
       </c>
       <c r="I18" t="n">
-        <v>2164552000</v>
+        <v>8983082912.48</v>
       </c>
       <c r="J18" t="n">
-        <v>2164552000</v>
+        <v>13853671808.32</v>
       </c>
       <c r="K18" t="n">
-        <v>13.60106563568115</v>
+        <v>9.949532508850098</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>11.47842025756836</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>093001</t>
+          <t>143734</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>农药兽药</t>
+          <t>化学原料</t>
         </is>
       </c>
     </row>
@@ -5605,57 +5605,57 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>603215</t>
+          <t>002369</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>比依股份</t>
+          <t>卓翼科技</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10.00485610961914</v>
+        <v>-6.423357963562012</v>
       </c>
       <c r="F19" t="n">
-        <v>22.65</v>
+        <v>6.41</v>
       </c>
       <c r="G19" t="n">
-        <v>22.65</v>
+        <v>7.54</v>
       </c>
       <c r="H19" t="n">
-        <v>1036403680</v>
+        <v>788219984</v>
       </c>
       <c r="I19" t="n">
-        <v>1608886804.5</v>
+        <v>3625820378.05</v>
       </c>
       <c r="J19" t="n">
-        <v>4269715237.35</v>
+        <v>3634189806.08</v>
       </c>
       <c r="K19" t="n">
-        <v>64.80007934570312</v>
+        <v>21.52277565002441</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.050995349884033</v>
+        <v>8.613138198852539</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>092502</t>
+          <t>142400</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>6/4</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>家电行业</t>
+          <t>消费电子</t>
         </is>
       </c>
     </row>
@@ -5668,44 +5668,44 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>600664</t>
+          <t>605199</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>哈药股份</t>
+          <t>葫芦娃</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>10.00571727752686</v>
       </c>
       <c r="F20" t="n">
-        <v>4.73</v>
+        <v>19.24</v>
       </c>
       <c r="G20" t="n">
-        <v>4.73</v>
+        <v>19.24</v>
       </c>
       <c r="H20" t="n">
-        <v>1227684400</v>
+        <v>722823744</v>
       </c>
       <c r="I20" t="n">
-        <v>11912551713.48</v>
+        <v>7698092388.48</v>
       </c>
       <c r="J20" t="n">
-        <v>11912551694.56</v>
+        <v>7698092388.48</v>
       </c>
       <c r="K20" t="n">
-        <v>10.39651775360107</v>
+        <v>9.66236400604248</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>5.581395149230957</v>
+        <v>8.690680503845215</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>145439</t>
+          <t>145602</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>中药</t>
         </is>
       </c>
     </row>
@@ -5731,44 +5731,44 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>002426</t>
+          <t>600789</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胜利精密</t>
+          <t>鲁抗医药</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.876711845397949</v>
+        <v>10.02838230133057</v>
       </c>
       <c r="F21" t="n">
-        <v>3.15</v>
+        <v>11.63</v>
       </c>
       <c r="G21" t="n">
-        <v>3.21</v>
+        <v>11.63</v>
       </c>
       <c r="H21" t="n">
-        <v>2358402528</v>
+        <v>710164560</v>
       </c>
       <c r="I21" t="n">
-        <v>10718189656.65</v>
+        <v>10451527820.16</v>
       </c>
       <c r="J21" t="n">
-        <v>10718271648</v>
+        <v>10451527820.16</v>
       </c>
       <c r="K21" t="n">
-        <v>22.48434638977051</v>
+        <v>6.794839859008789</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>9.931507110595703</v>
+        <v>0</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>144027</t>
+          <t>094146</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -5776,12 +5776,12 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -5794,44 +5794,44 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>600789</t>
+          <t>002793</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>鲁抗医药</t>
+          <t>罗欣药业</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>10.02838230133057</v>
+        <v>10.07194232940674</v>
       </c>
       <c r="F22" t="n">
-        <v>11.63</v>
+        <v>4.59</v>
       </c>
       <c r="G22" t="n">
-        <v>11.63</v>
+        <v>4.59</v>
       </c>
       <c r="H22" t="n">
-        <v>710164560</v>
+        <v>517442560</v>
       </c>
       <c r="I22" t="n">
-        <v>10451527820.16</v>
+        <v>4984459752.96</v>
       </c>
       <c r="J22" t="n">
-        <v>10451527820.16</v>
+        <v>4992031123.2</v>
       </c>
       <c r="K22" t="n">
-        <v>6.794839859008789</v>
+        <v>10.87534713745117</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>11.27098369598389</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>094146</t>
+          <t>145327</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -5857,44 +5857,44 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>600618</t>
+          <t>002552</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>氯碱化工</t>
+          <t>宝鼎科技</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.00918292999268</v>
+        <v>10.01381206512451</v>
       </c>
       <c r="F23" t="n">
-        <v>11.98</v>
+        <v>15.93</v>
       </c>
       <c r="G23" t="n">
-        <v>11.98</v>
+        <v>15.93</v>
       </c>
       <c r="H23" t="n">
-        <v>846526080</v>
+        <v>513462992</v>
       </c>
       <c r="I23" t="n">
-        <v>8983082912.48</v>
+        <v>5101324370.28</v>
       </c>
       <c r="J23" t="n">
-        <v>13853671808.32</v>
+        <v>6508074569.76</v>
       </c>
       <c r="K23" t="n">
-        <v>9.949532508850098</v>
+        <v>10.29977226257324</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>11.47842025756836</v>
+        <v>12.15469646453857</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>143734</t>
+          <t>142412</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -5902,12 +5902,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>6/3</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>化学原料</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -5920,44 +5920,44 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>000756</t>
+          <t>603320</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>新华制药</t>
+          <t>迪贝电气</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10.02985095977783</v>
+        <v>9.973752975463867</v>
       </c>
       <c r="F24" t="n">
-        <v>18.43</v>
+        <v>16.76</v>
       </c>
       <c r="G24" t="n">
-        <v>18.43</v>
+        <v>16.76</v>
       </c>
       <c r="H24" t="n">
-        <v>1746293584</v>
+        <v>431889408</v>
       </c>
       <c r="I24" t="n">
-        <v>8270911473.23</v>
+        <v>2243761257.2</v>
       </c>
       <c r="J24" t="n">
-        <v>12576772657.76</v>
+        <v>2243761257.2</v>
       </c>
       <c r="K24" t="n">
-        <v>21.56064605712891</v>
+        <v>20.1306037902832</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>5.970149040222168</v>
+        <v>11.87664031982422</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>131521</t>
+          <t>092503</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -5970,7 +5970,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>电机</t>
         </is>
       </c>
     </row>
@@ -5983,44 +5983,44 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>002449</t>
+          <t>002713</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>国星光电</t>
+          <t>东易日盛</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-9.98603343963623</v>
+        <v>-4.835165023803711</v>
       </c>
       <c r="F25" t="n">
-        <v>12.89</v>
+        <v>4.33</v>
       </c>
       <c r="G25" t="n">
-        <v>15.75</v>
+        <v>5.01</v>
       </c>
       <c r="H25" t="n">
-        <v>2414096192</v>
+        <v>218285034</v>
       </c>
       <c r="I25" t="n">
-        <v>7946606229.21</v>
+        <v>1781205375.24</v>
       </c>
       <c r="J25" t="n">
-        <v>7972170695.52</v>
+        <v>1816595106.08</v>
       </c>
       <c r="K25" t="n">
-        <v>28.36662483215332</v>
+        <v>11.95514583587646</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>10.54469299316406</v>
+        <v>13.62637424468994</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>095027</t>
+          <t>092500</t>
         </is>
       </c>
       <c r="O25" t="n">
@@ -6028,12 +6028,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>12/6</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>光学光电</t>
+          <t>装修装饰</t>
         </is>
       </c>
     </row>
@@ -6046,44 +6046,44 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>605199</t>
+          <t>605208</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>葫芦娃</t>
+          <t>永茂泰</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>10.00571727752686</v>
+        <v>9.963099479675293</v>
       </c>
       <c r="F26" t="n">
-        <v>19.24</v>
+        <v>8.94</v>
       </c>
       <c r="G26" t="n">
-        <v>19.24</v>
+        <v>8.94</v>
       </c>
       <c r="H26" t="n">
-        <v>722823744</v>
+        <v>176733009</v>
       </c>
       <c r="I26" t="n">
-        <v>7698092388.48</v>
+        <v>2949663600</v>
       </c>
       <c r="J26" t="n">
-        <v>7698092388.48</v>
+        <v>2949663600</v>
       </c>
       <c r="K26" t="n">
-        <v>9.66236400604248</v>
+        <v>6.179512500762939</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>8.690680503845215</v>
+        <v>8.733086585998535</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>145602</t>
+          <t>100110</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>6/3</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>中药</t>
+          <t>汽车零部</t>
         </is>
       </c>
     </row>
@@ -6109,44 +6109,44 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>000852</t>
+          <t>002952</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>石化机械</t>
+          <t>亚世光电</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.604277968406677</v>
+        <v>-10.01420497894287</v>
       </c>
       <c r="F27" t="n">
-        <v>7.6</v>
+        <v>25.34</v>
       </c>
       <c r="G27" t="n">
-        <v>8.23</v>
+        <v>30.98</v>
       </c>
       <c r="H27" t="n">
-        <v>899763136</v>
+        <v>121565868</v>
       </c>
       <c r="I27" t="n">
-        <v>7151610480.4</v>
+        <v>3346021110.88</v>
       </c>
       <c r="J27" t="n">
-        <v>7266676889.599999</v>
+        <v>4164375600</v>
       </c>
       <c r="K27" t="n">
-        <v>12.72422790527344</v>
+        <v>3.555680990219116</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>9.358288764953613</v>
+        <v>6.07244348526001</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>101754</t>
+          <t>142406</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>专用设备</t>
+          <t>光学光电</t>
         </is>
       </c>
     </row>
@@ -6172,44 +6172,44 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>002733</t>
+          <t>000573</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>雄韬股份</t>
+          <t>粤宏远Ａ</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>10.03215503692627</v>
+        <v>9.91253662109375</v>
       </c>
       <c r="F28" t="n">
-        <v>17.11</v>
+        <v>3.77</v>
       </c>
       <c r="G28" t="n">
-        <v>17.11</v>
+        <v>3.77</v>
       </c>
       <c r="H28" t="n">
-        <v>1152002080</v>
+        <v>34276214</v>
       </c>
       <c r="I28" t="n">
-        <v>6311241806.49</v>
+        <v>2386277367.63</v>
       </c>
       <c r="J28" t="n">
-        <v>6573917144.32</v>
+        <v>2406317892.16</v>
       </c>
       <c r="K28" t="n">
-        <v>20.16857147216797</v>
+        <v>1.436388492584229</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>16.78456687927246</v>
+        <v>0</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>140654</t>
+          <t>092500</t>
         </is>
       </c>
       <c r="O28" t="n">
@@ -6222,7 +6222,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>电池</t>
+          <t>房地产开</t>
         </is>
       </c>
     </row>
@@ -6235,57 +6235,57 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>002552</t>
+          <t>000981</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>宝鼎科技</t>
+          <t>山子高科</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>10.01381206512451</v>
+        <v>-7.024793148040771</v>
       </c>
       <c r="F29" t="n">
-        <v>15.93</v>
+        <v>2.25</v>
       </c>
       <c r="G29" t="n">
-        <v>15.93</v>
+        <v>2.66</v>
       </c>
       <c r="H29" t="n">
-        <v>513462992</v>
+        <v>2597644912</v>
       </c>
       <c r="I29" t="n">
-        <v>5101324370.28</v>
+        <v>14681599767</v>
       </c>
       <c r="J29" t="n">
-        <v>6508074569.76</v>
+        <v>22494309696</v>
       </c>
       <c r="K29" t="n">
-        <v>10.29977226257324</v>
+        <v>17.22141456604004</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>12.15469646453857</v>
+        <v>12.80991744995117</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>142412</t>
+          <t>092500</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>6/3</t>
+          <t>3/2</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>汽车零部</t>
         </is>
       </c>
     </row>
@@ -6298,57 +6298,57 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>002793</t>
+          <t>600824</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>罗欣药业</t>
+          <t>益民集团</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>10.07194232940674</v>
+        <v>3.142328977584839</v>
       </c>
       <c r="F30" t="n">
-        <v>4.59</v>
+        <v>5.58</v>
       </c>
       <c r="G30" t="n">
-        <v>4.59</v>
+        <v>5.95</v>
       </c>
       <c r="H30" t="n">
-        <v>517442560</v>
+        <v>1766538896</v>
       </c>
       <c r="I30" t="n">
-        <v>4984459752.96</v>
+        <v>5881471067.34</v>
       </c>
       <c r="J30" t="n">
-        <v>4992031123.2</v>
+        <v>5881471061.76</v>
       </c>
       <c r="K30" t="n">
-        <v>10.87534713745117</v>
+        <v>29.28415107727051</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>11.27098369598389</v>
+        <v>13.4935302734375</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>145327</t>
+          <t>133905</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>3/2</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>商业百货</t>
         </is>
       </c>
     </row>
@@ -6361,48 +6361,48 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>002361</t>
+          <t>002117</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>神剑股份</t>
+          <t>东港股份</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-4.429301738739014</v>
+        <v>-9.971712112426758</v>
       </c>
       <c r="F31" t="n">
-        <v>5.61</v>
+        <v>12.73</v>
       </c>
       <c r="G31" t="n">
-        <v>6.46</v>
+        <v>15.55</v>
       </c>
       <c r="H31" t="n">
-        <v>1598955104</v>
+        <v>1273055184</v>
       </c>
       <c r="I31" t="n">
-        <v>4498787940.240001</v>
+        <v>6664851076.400001</v>
       </c>
       <c r="J31" t="n">
-        <v>5335306215.360001</v>
+        <v>6666967820.8</v>
       </c>
       <c r="K31" t="n">
-        <v>35.0535774230957</v>
+        <v>18.75010871887207</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>14.65076637268066</v>
+        <v>7.496464252471924</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>101251</t>
+          <t>131015</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>造纸印刷</t>
         </is>
       </c>
     </row>
@@ -6424,57 +6424,57 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>003015</t>
+          <t>000882</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>日久光电</t>
+          <t>华联股份</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4.057591915130615</v>
+        <v>-9.920635223388672</v>
       </c>
       <c r="F32" t="n">
-        <v>15.9</v>
+        <v>2.27</v>
       </c>
       <c r="G32" t="n">
-        <v>16.81</v>
+        <v>2.77</v>
       </c>
       <c r="H32" t="n">
-        <v>1339176528</v>
+        <v>1076132368</v>
       </c>
       <c r="I32" t="n">
-        <v>3947414835.6</v>
+        <v>6209617383.82</v>
       </c>
       <c r="J32" t="n">
-        <v>4468960084.8</v>
+        <v>6213788931.04</v>
       </c>
       <c r="K32" t="n">
-        <v>34.95267486572266</v>
+        <v>16.66067886352539</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>12.63088989257812</v>
+        <v>11.50793647766113</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>144036</t>
+          <t>144645</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>3/2</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>光学光电</t>
+          <t>商业百货</t>
         </is>
       </c>
     </row>
@@ -6487,57 +6487,57 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>002369</t>
+          <t>603215</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>卓翼科技</t>
+          <t>比依股份</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-6.423357963562012</v>
+        <v>10.00485610961914</v>
       </c>
       <c r="F33" t="n">
-        <v>6.41</v>
+        <v>22.65</v>
       </c>
       <c r="G33" t="n">
-        <v>7.54</v>
+        <v>22.65</v>
       </c>
       <c r="H33" t="n">
-        <v>788219984</v>
+        <v>1036403680</v>
       </c>
       <c r="I33" t="n">
-        <v>3625820378.05</v>
+        <v>1608886804.5</v>
       </c>
       <c r="J33" t="n">
-        <v>3634189806.08</v>
+        <v>4269715237.35</v>
       </c>
       <c r="K33" t="n">
-        <v>21.52277565002441</v>
+        <v>64.80007934570312</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>8.613138198852539</v>
+        <v>5.050995349884033</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>142400</t>
+          <t>092502</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>6/4</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>消费电子</t>
+          <t>家电行业</t>
         </is>
       </c>
     </row>
@@ -6550,57 +6550,57 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>002952</t>
+          <t>300615</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>亚世光电</t>
+          <t>欣天科技</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-10.01420497894287</v>
+        <v>7.915408134460449</v>
       </c>
       <c r="F34" t="n">
-        <v>25.34</v>
+        <v>17.86</v>
       </c>
       <c r="G34" t="n">
-        <v>30.98</v>
+        <v>19.86</v>
       </c>
       <c r="H34" t="n">
-        <v>121565868</v>
+        <v>901003248</v>
       </c>
       <c r="I34" t="n">
-        <v>3346021110.88</v>
+        <v>2361668824.42</v>
       </c>
       <c r="J34" t="n">
-        <v>4164375600</v>
+        <v>3450869908</v>
       </c>
       <c r="K34" t="n">
-        <v>3.555680990219116</v>
+        <v>37.61865997314453</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>6.07244348526001</v>
+        <v>16.79758262634277</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>142406</t>
+          <t>135854</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>3/2</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>光学光电</t>
+          <t>通信设备</t>
         </is>
       </c>
     </row>
@@ -6613,57 +6613,57 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>002076</t>
+          <t>605033</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>星光股份</t>
+          <t>美邦股份</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>7.011070251464844</v>
+        <v>10.03436470031738</v>
       </c>
       <c r="F35" t="n">
-        <v>2.9</v>
+        <v>16.01</v>
       </c>
       <c r="G35" t="n">
-        <v>2.98</v>
+        <v>16.01</v>
       </c>
       <c r="H35" t="n">
-        <v>865173472</v>
+        <v>270682080</v>
       </c>
       <c r="I35" t="n">
-        <v>2996428567</v>
+        <v>2164552000</v>
       </c>
       <c r="J35" t="n">
-        <v>3216461038.4</v>
+        <v>2164552000</v>
       </c>
       <c r="K35" t="n">
-        <v>29.24821090698242</v>
+        <v>13.60106563568115</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>8.118081092834473</v>
+        <v>20</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>104857</t>
+          <t>093001</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>家电行业</t>
+          <t>农药兽药</t>
         </is>
       </c>
     </row>
@@ -6676,57 +6676,57 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>002213</t>
+          <t>002184</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>大为股份</t>
+          <t>海得控制</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.40350878238678</v>
+        <v>9.971712112426758</v>
       </c>
       <c r="F36" t="n">
-        <v>14.45</v>
+        <v>15.55</v>
       </c>
       <c r="G36" t="n">
-        <v>15.68</v>
+        <v>15.55</v>
       </c>
       <c r="H36" t="n">
-        <v>847338752</v>
+        <v>1506336720</v>
       </c>
       <c r="I36" t="n">
-        <v>2976625784.8</v>
+        <v>3733205187.2</v>
       </c>
       <c r="J36" t="n">
-        <v>3426889750</v>
+        <v>5472175122.400001</v>
       </c>
       <c r="K36" t="n">
-        <v>28.26461982727051</v>
+        <v>43.27121353149414</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>11.22807025909424</v>
+        <v>18.88260269165039</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>095245</t>
+          <t>142354</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>4/4</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>专用设备</t>
         </is>
       </c>
     </row>
@@ -6739,57 +6739,57 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>605208</t>
+          <t>002397</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>永茂泰</t>
+          <t>梦洁股份</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>9.963099479675293</v>
+        <v>5.915493011474609</v>
       </c>
       <c r="F37" t="n">
-        <v>8.94</v>
+        <v>3.76</v>
       </c>
       <c r="G37" t="n">
-        <v>8.94</v>
+        <v>3.91</v>
       </c>
       <c r="H37" t="n">
-        <v>176733009</v>
+        <v>717374496</v>
       </c>
       <c r="I37" t="n">
-        <v>2949663600</v>
+        <v>2210324268.24</v>
       </c>
       <c r="J37" t="n">
-        <v>2949663600</v>
+        <v>2811658214.4</v>
       </c>
       <c r="K37" t="n">
-        <v>6.179512500762939</v>
+        <v>33.64427185058594</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>8.733086585998535</v>
+        <v>20</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>100110</t>
+          <t>092500</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>6/3</t>
+          <t>4/3</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>汽车零部</t>
+          <t>纺织服装</t>
         </is>
       </c>
     </row>
@@ -6802,57 +6802,57 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>000573</t>
+          <t>603617</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>君禾股份</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>9.91253662109375</v>
+        <v>10.03382205963135</v>
       </c>
       <c r="F38" t="n">
-        <v>3.77</v>
+        <v>9.76</v>
       </c>
       <c r="G38" t="n">
-        <v>3.77</v>
+        <v>9.76</v>
       </c>
       <c r="H38" t="n">
-        <v>34276214</v>
+        <v>584853632</v>
       </c>
       <c r="I38" t="n">
-        <v>2386277367.63</v>
+        <v>3709593849.12</v>
       </c>
       <c r="J38" t="n">
-        <v>2406317892.16</v>
+        <v>3813049917.44</v>
       </c>
       <c r="K38" t="n">
-        <v>1.436388492584229</v>
+        <v>15.77432155609131</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>3.043968439102173</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>092500</t>
+          <t>102030</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>4/4</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>房地产开</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -6865,57 +6865,57 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>603320</t>
+          <t>600530</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>迪贝电气</t>
+          <t>交大昂立</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>9.973752975463867</v>
+        <v>-9.931507110595703</v>
       </c>
       <c r="F39" t="n">
-        <v>16.76</v>
+        <v>5.26</v>
       </c>
       <c r="G39" t="n">
-        <v>16.76</v>
+        <v>6.42</v>
       </c>
       <c r="H39" t="n">
-        <v>431889408</v>
+        <v>389335728</v>
       </c>
       <c r="I39" t="n">
-        <v>2243761257.2</v>
+        <v>4076079200</v>
       </c>
       <c r="J39" t="n">
-        <v>2243761257.2</v>
+        <v>4076079200</v>
       </c>
       <c r="K39" t="n">
-        <v>20.1306037902832</v>
+        <v>9.443222045898438</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>11.87664031982422</v>
+        <v>8.219178199768066</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>092503</t>
+          <t>142040</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>5/4</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>电机</t>
+          <t>食品饮料</t>
         </is>
       </c>
     </row>
@@ -6928,57 +6928,57 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>301568</t>
+          <t>000533</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>思泰克</t>
+          <t>顺钠股份</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3.86904764175415</v>
+        <v>-7.765667915344238</v>
       </c>
       <c r="F40" t="n">
-        <v>41.88</v>
+        <v>6.77</v>
       </c>
       <c r="G40" t="n">
-        <v>48.38</v>
+        <v>8.07</v>
       </c>
       <c r="H40" t="n">
-        <v>964982304</v>
+        <v>2262480896</v>
       </c>
       <c r="I40" t="n">
-        <v>1995331515.72</v>
+        <v>4636789248</v>
       </c>
       <c r="J40" t="n">
-        <v>4324461792</v>
+        <v>4676824320</v>
       </c>
       <c r="K40" t="n">
-        <v>49.36143112182617</v>
+        <v>42.95573043823242</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>11.75595188140869</v>
+        <v>19.75476837158203</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>105033</t>
+          <t>145654</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>7/6</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>专用设备</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -6991,57 +6991,57 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>002713</t>
+          <t>600693</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>东易日盛</t>
+          <t>东百集团</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-4.835165023803711</v>
+        <v>-10.03541946411133</v>
       </c>
       <c r="F41" t="n">
-        <v>4.33</v>
+        <v>7.62</v>
       </c>
       <c r="G41" t="n">
-        <v>5.01</v>
+        <v>9.32</v>
       </c>
       <c r="H41" t="n">
-        <v>218285034</v>
+        <v>923295168</v>
       </c>
       <c r="I41" t="n">
-        <v>1781205375.24</v>
+        <v>6621420198.84</v>
       </c>
       <c r="J41" t="n">
-        <v>1816595106.08</v>
+        <v>6628228348.8</v>
       </c>
       <c r="K41" t="n">
-        <v>11.95514583587646</v>
+        <v>13.37450408935547</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>13.62637424468994</v>
+        <v>16.29279899597168</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>092500</t>
+          <t>145437</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>19/10</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>装修装饰</t>
+          <t>商业百货</t>
         </is>
       </c>
     </row>
